--- a/files/CSE305/CSE305_CT_Marks.xlsx
+++ b/files/CSE305/CSE305_CT_Marks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rifat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rifat/Research/homepage/files/CSE305/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$125</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$125</definedName>
+  </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
   <si>
     <t>Absent</t>
   </si>
@@ -40,19 +44,29 @@
     <t>CT-1 (20)</t>
   </si>
   <si>
-    <t>absent</t>
+    <t>0705071</t>
   </si>
   <si>
-    <t>0705071</t>
+    <t>CT-4 (20)</t>
+  </si>
+  <si>
+    <t>0805104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,23 +158,29 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,10 +189,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B124"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -492,1000 +512,1383 @@
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1305001</v>
       </c>
       <c r="B2" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1305002</v>
       </c>
       <c r="B3" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C3" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1305003</v>
       </c>
       <c r="B4" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1305004</v>
       </c>
       <c r="B5" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1305005</v>
       </c>
       <c r="B6" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1305006</v>
       </c>
       <c r="B7" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1305007</v>
       </c>
       <c r="B8" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1305008</v>
       </c>
       <c r="B9" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>1305009</v>
       </c>
       <c r="B10" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1305010</v>
       </c>
       <c r="B11" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1305011</v>
       </c>
       <c r="B12" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1305012</v>
       </c>
       <c r="B13" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1305013</v>
       </c>
       <c r="B14" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1305014</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1305015</v>
       </c>
       <c r="B16" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1305016</v>
       </c>
       <c r="B17" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C17" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1305017</v>
       </c>
       <c r="B18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C18" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1305018</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>1305019</v>
       </c>
       <c r="B20" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C20" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1305020</v>
       </c>
       <c r="B21" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1305021</v>
       </c>
       <c r="B22" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>1305022</v>
       </c>
       <c r="B23" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1305023</v>
       </c>
       <c r="B24" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C24" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>1305024</v>
       </c>
       <c r="B25" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C25" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1305025</v>
       </c>
       <c r="B26" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C26" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1305026</v>
       </c>
       <c r="B27" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1305027</v>
       </c>
       <c r="B28" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1305028</v>
       </c>
       <c r="B29" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1305029</v>
       </c>
       <c r="B30" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1305030</v>
       </c>
       <c r="B31" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C31" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>1305031</v>
       </c>
       <c r="B32" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C32" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1305032</v>
       </c>
       <c r="B33" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C33" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>1305033</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C34" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>1305034</v>
       </c>
       <c r="B35" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C35" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>1305035</v>
       </c>
       <c r="B36" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C36" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>1305036</v>
       </c>
       <c r="B37" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C37" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>1305037</v>
       </c>
       <c r="B38" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C38" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>1305038</v>
       </c>
       <c r="B39" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>1305039</v>
       </c>
       <c r="B40" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C40" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>1305040</v>
       </c>
       <c r="B41" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>1305041</v>
       </c>
       <c r="B42" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C42" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>1305042</v>
       </c>
       <c r="B43" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C43" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>1305043</v>
       </c>
       <c r="B44" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C44" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1305044</v>
       </c>
       <c r="B45" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C45" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1305045</v>
       </c>
       <c r="B46" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C46" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1305046</v>
       </c>
       <c r="B47" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C47" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1305047</v>
       </c>
       <c r="B48" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C48" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1305048</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1305049</v>
       </c>
       <c r="B50" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C50" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1305050</v>
       </c>
       <c r="B51" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C51" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>1305051</v>
       </c>
       <c r="B52" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C52" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1305052</v>
       </c>
       <c r="B53" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C53" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1305053</v>
       </c>
       <c r="B54" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C54" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>1305054</v>
       </c>
       <c r="B55" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C55" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>1305055</v>
       </c>
       <c r="B56" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C56" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1305056</v>
       </c>
       <c r="B57" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C57" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1305057</v>
       </c>
       <c r="B58" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C58" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1305058</v>
       </c>
       <c r="B59" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C59" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1305059</v>
       </c>
       <c r="B60" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C60" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1305060</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1305061</v>
       </c>
       <c r="B62" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C62" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>1305062</v>
       </c>
       <c r="B63" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C63" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>1305063</v>
       </c>
       <c r="B64" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C64" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1305064</v>
       </c>
       <c r="B65" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C65" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1305065</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1305066</v>
       </c>
       <c r="B67" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C67" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1305067</v>
       </c>
       <c r="B68" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C68" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1305068</v>
       </c>
       <c r="B69" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C69" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>1305069</v>
       </c>
       <c r="B70" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>1305070</v>
       </c>
       <c r="B71" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C71" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>1305071</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>1305072</v>
       </c>
       <c r="B73" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C73" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>1305073</v>
       </c>
       <c r="B74" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C74" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>1305074</v>
       </c>
       <c r="B75" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C75" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>1305075</v>
       </c>
       <c r="B76" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C76" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>1305076</v>
       </c>
       <c r="B77" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C77" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>1305077</v>
       </c>
       <c r="B78" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C78" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>1305078</v>
       </c>
       <c r="B79" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C79" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>1305079</v>
       </c>
       <c r="B80" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C80" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>1305080</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>1305081</v>
       </c>
       <c r="B82" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C82" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>1305082</v>
       </c>
       <c r="B83" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C83" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>1305083</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>1305084</v>
       </c>
       <c r="B85" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C85" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>1305085</v>
       </c>
       <c r="B86" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C86" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>1305086</v>
       </c>
       <c r="B87" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C87" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>1305087</v>
       </c>
       <c r="B88" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C88" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>1305088</v>
       </c>
       <c r="B89" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C89" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>1305089</v>
       </c>
       <c r="B90" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C90" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>1305090</v>
       </c>
       <c r="B91" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C91" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>1305091</v>
       </c>
       <c r="B92" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C92" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>1305092</v>
       </c>
       <c r="B93" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C93" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>1305093</v>
       </c>
       <c r="B94" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C94" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>1305094</v>
       </c>
       <c r="B95" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C95" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>1305095</v>
       </c>
       <c r="B96" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C96" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>1305096</v>
       </c>
       <c r="B97" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C97" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>1305097</v>
       </c>
       <c r="B98" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C98" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>1305098</v>
       </c>
       <c r="B99" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C99" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>1305099</v>
       </c>
       <c r="B100" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C100" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>1305100</v>
       </c>
       <c r="B101" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C101" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>1305101</v>
       </c>
       <c r="B102" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C102" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>1305102</v>
       </c>
       <c r="B103" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>1305103</v>
       </c>
       <c r="B104" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C104" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>1305104</v>
       </c>
       <c r="B105" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C105" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>1305105</v>
       </c>
       <c r="B106" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C106" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>1305106</v>
       </c>
       <c r="B107" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C107" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>1305107</v>
       </c>
       <c r="B108" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C108" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>1305108</v>
       </c>
       <c r="B109" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C109" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>1305109</v>
       </c>
       <c r="B110" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C110" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>1305110</v>
       </c>
       <c r="B111" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C111" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>1305111</v>
       </c>
       <c r="B112" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C112" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>1305112</v>
       </c>
       <c r="B113" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C113" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>1305113</v>
       </c>
       <c r="B114" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C114" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>1305114</v>
       </c>
       <c r="B115" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C115" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>1305115</v>
       </c>
       <c r="B116" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C116" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>1305116</v>
       </c>
       <c r="B117" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C117" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>1305117</v>
       </c>
       <c r="B118" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C118" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>1305118</v>
       </c>
       <c r="B119" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C119" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>1305119</v>
       </c>
       <c r="B120" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C120" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>1305120</v>
       </c>
       <c r="B121" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C121" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="C122" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="5">
+        <v>20</v>
+      </c>
+      <c r="C123" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
         <v>1205006</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B124" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="C124" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
         <v>1205048</v>
       </c>
-      <c r="B124" s="5">
-        <v>20</v>
+      <c r="B125" s="5">
+        <v>20</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -1499,7 +1902,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -1513,7 +1916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
